--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CC1E1-E1C2-C14B-A0CB-4539D6BCB6C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F476A2-7F34-254B-A3BD-8C9B040C6E4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Problem Number</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>26th July</t>
+  </si>
+  <si>
+    <t>31st  July</t>
+  </si>
+  <si>
+    <t>Verifying an Alien dictionary</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,6 +596,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>953</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F476A2-7F34-254B-A3BD-8C9B040C6E4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F87523D-4C93-5047-9BA3-F4C805F0CF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Problem Number</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Verifying an Alien dictionary</t>
+  </si>
+  <si>
+    <t>1st Aug</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,6 +616,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>953</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F87523D-4C93-5047-9BA3-F4C805F0CF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DA0B3-07D2-AB42-A8DA-FF28A9D7AA98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Problem Number</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
@@ -94,6 +91,18 @@
   </si>
   <si>
     <t>1st Aug</t>
+  </si>
+  <si>
+    <t>2nd Aug</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>3rd Aug</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -502,16 +511,16 @@
         <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -522,115 +531,152 @@
         <v>415</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>146</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>146</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>953</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>953</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DA0B3-07D2-AB42-A8DA-FF28A9D7AA98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A938E7-2FC9-034E-AA94-22D11ED125C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Problem Number</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>4th Aug</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -679,6 +685,45 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A938E7-2FC9-034E-AA94-22D11ED125C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344E3F4-59D5-CF47-85B5-617B9499C751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Problem Number</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>5th Aug</t>
+  </si>
+  <si>
+    <t>Valid PalindromeII</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -721,7 +727,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>680</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344E3F4-59D5-CF47-85B5-617B9499C751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58E62C-44A7-6943-B982-01ECAC68B99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Problem Number</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Valid PalindromeII</t>
+  </si>
+  <si>
+    <t>10th Aug</t>
+  </si>
+  <si>
+    <t>Roman Integer</t>
+  </si>
+  <si>
+    <t>7th Aug</t>
+  </si>
+  <si>
+    <t>Tried</t>
   </si>
 </sst>
 </file>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -742,6 +754,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58E62C-44A7-6943-B982-01ECAC68B99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D3598-4947-8E48-8F6A-F5BFF7BA01B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Problem Number</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Tried</t>
+  </si>
+  <si>
+    <t>11th Aug</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -788,6 +794,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leettracker.xlsx
+++ b/leettracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M_726661/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D3598-4947-8E48-8F6A-F5BFF7BA01B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72024DA-D278-2A4A-9CCF-62985BD8B031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FD720952-DA5D-8A45-A7FA-5933E7B3BA3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Problem Number</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>12th Aug</t>
+  </si>
+  <si>
+    <t>FizzBuzz</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F190A-1005-B946-AB9B-42EEF2292475}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -811,6 +817,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
